--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB278"/>
+  <dimension ref="A1:AB279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -2523,6 +2523,123 @@
       <c r="P278" s="12" t="n"/>
       <c r="V278" s="12" t="n"/>
     </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB17"/>
   <conditionalFormatting sqref="P17">

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -1054,33 +1054,125 @@
     </row>
     <row r="3" customFormat="1" s="18">
       <c r="A3" s="12" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="12" t="n"/>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" s="14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="H3" s="15" t="n"/>
-      <c r="I3" s="12" t="n"/>
-      <c r="J3" s="12" t="n"/>
-      <c r="K3" s="12" t="n"/>
-      <c r="L3" s="12" t="n"/>
-      <c r="M3" s="12" t="n"/>
-      <c r="N3" s="12" t="n"/>
-      <c r="O3" s="12" t="n"/>
-      <c r="P3" s="16" t="n"/>
-      <c r="Q3" s="12" t="n"/>
+      <c r="I3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P3" s="16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="R3" s="12" t="n"/>
       <c r="S3" s="12" t="n"/>
-      <c r="T3" s="12" t="n"/>
-      <c r="U3" s="12" t="n"/>
-      <c r="V3" s="12" t="n"/>
-      <c r="W3" s="12" t="n"/>
-      <c r="X3" s="12" t="n"/>
+      <c r="T3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X3" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="Y3" s="12" t="n"/>
-      <c r="Z3" s="17" t="n"/>
-      <c r="AA3" s="17" t="n"/>
-      <c r="AB3" s="17" t="n"/>
+      <c r="Z3" s="17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA3" s="17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB3" s="17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="4" customFormat="1" s="18">
       <c r="B4" s="19" t="n"/>

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -760,7 +760,7 @@
     <row r="1" ht="48.75" customFormat="1" customHeight="1" s="7">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - 11/26/2025</t>
+          <t xml:space="preserve">Hotcarding Spreadsheet - Migration Wave </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB279"/>
+  <dimension ref="A1:BD280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -760,7 +760,7 @@
     <row r="1" ht="48.75" customFormat="1" customHeight="1" s="7">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hotcarding Spreadsheet - Migration Wave </t>
+          <t>Hotcarding Spreadsheet - Migration Wave 11/26/2025</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1043,12 +1043,152 @@
       </c>
       <c r="AA2" s="8" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>Hotcarding Spreadsheet Migration Wave</t>
         </is>
       </c>
       <c r="AB2" s="8" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>Issuer Address</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Zipcode</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Fi Name</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Fi Contact</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Visa Bid</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Mc Ica</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>New Mc Ica New Berlin</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Bin</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Bin Type Consumer Business Atm</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Pan Length 16 17 18 19</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Real R T</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Pseudo R T</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Aims Id</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Issuing Network Participation Plus Cirrus Pulse Remember Jeanie Nyce Nycejp53 Nyce Sum Column Aa Y Jadv Nyce Sum Column Aa Y</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Acquiring Network Participation Nyce Interlink Star Remember Jeanie Nyce Nycejp53 Nyce Sum Column Aa Y Jadv Nyce Sum Column Aa Y</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Vau Segment Id</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Existing Plus Rid To Be Deleted</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Mc Affiliate Id</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Ach Account For Billing And Fees Dda Only</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Ach R T For Billing And Fees</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Dda Versus Gl</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Regional Networks Interchange Account</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Regional Networks Interchange R T</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Dda Versus Gl 1</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>New Platform</t>
         </is>
       </c>
     </row>
@@ -2732,6 +2872,163 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="AA280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="AC280" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="AD280" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>xxxxyyyyyy</t>
+        </is>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AI280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AJ280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AK280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AL280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AM280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AO280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AP280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AQ280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AR280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AS280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AT280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AU280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AV280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AW280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AX280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AY280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AZ280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BA280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BB280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BC280" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="BD280" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB17"/>
   <conditionalFormatting sqref="P17">

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD279"/>
+  <dimension ref="A1:BC279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -760,7 +760,7 @@
     <row r="1" ht="48.75" customFormat="1" customHeight="1" s="7">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Migration Wave Migration Team</t>
+          <t>Hotcarding Spreadsheet - Migration Wave 11/26/2025</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1078,115 +1078,110 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Migration Live Date</t>
+          <t>Visa Bid</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Visa Bid</t>
+          <t>Mc Ica</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>Mc Ica</t>
+          <t>New Mc Ica New Berlin</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>New Mc Ica New Berlin</t>
+          <t>Bin</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Bin</t>
+          <t>Bin Type Consumer Business Atm</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Bin Type Consumer Business Atm</t>
+          <t>Pan Length 16 17 18 19</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Pan Length 16 17 18 19</t>
+          <t>Real R T</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Real R T</t>
+          <t>Pseudo R T</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Pseudo R T</t>
+          <t>Aims Id</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>Aims Id</t>
+          <t>Issuing Network Participation Plus Cirrus Pulse Remember Jeanie Nyce Nyce Jp53 Nyce Sum Column Aa Y Jadv Nyce Sum Column Aa Y</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Issuing Network Participation Plus Cirrus Pulse Remember Jeanie Nyce Jp53 Nyce Sum Column Aa Y Jadv Nyce Sum Column Aa Y</t>
+          <t>Acquiring Network Participation Nyce Interlink Star Remember Jeanie Nyce Nyce Jp53 Nyce Sum Column Aa Y Jadv Nyce Sum Column Aa Y</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Acquiring Network Participation Nyce Interlink Star Remember Jeanie Nyce Jp53 Nyce Sum Column Aa Y Jadv Nyce Sum Column Aa Y</t>
+          <t>Vau Segment Id</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>Vau Segment Id</t>
+          <t>Existing Plus Rid To Be Deleted</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Existing Plus Rid To Be Deleted</t>
+          <t>Mc Affiliate Id</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Mc Affiliate Id</t>
+          <t>Ach Account For Billing And Fees Dda Only</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ach Account For Billing And Fees Dda Only</t>
+          <t>Ach R T For Billing And Fees</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ach R T For Billing And Fees</t>
+          <t>Dda Versus Gl</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Dda Versus Gl</t>
+          <t>Regional Networks Interchange Account</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>Regional Networks Interchange Account</t>
+          <t>Regional Networks Interchange R T</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>Regional Networks Interchange R T</t>
+          <t>Dda Versus Gl 1</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>Dda Versus Gl 1</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
-        <is>
-          <t>Switch</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
         <is>
           <t>New Platform</t>
         </is>
@@ -2664,144 +2659,140 @@
       <c r="V278" s="12" t="n"/>
     </row>
     <row r="279">
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
       <c r="AA279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>new name</t>
         </is>
       </c>
       <c r="AB279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>banerji</t>
         </is>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>kolkata</t>
         </is>
       </c>
       <c r="AD279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="AE279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
-        </is>
-      </c>
-      <c r="AF279" t="inlineStr"/>
-      <c r="AG279" t="inlineStr"/>
+          <t>600211</t>
+        </is>
+      </c>
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AH279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AI279" t="inlineStr">
         <is>
-          <t>Licensing Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AJ279" t="inlineStr">
         <is>
-          <t>Licensing Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AK279" t="inlineStr">
         <is>
-          <t>Licensing Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AL279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AM279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AN279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AO279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
-        </is>
-      </c>
-      <c r="AP279" t="inlineStr">
-        <is>
-          <t>Migration Team</t>
-        </is>
-      </c>
-      <c r="AQ279" t="inlineStr">
-        <is>
-          <t>Migration Team</t>
-        </is>
-      </c>
-      <c r="AR279" t="inlineStr">
-        <is>
-          <t>Migration Team</t>
-        </is>
-      </c>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AP279" t="inlineStr"/>
+      <c r="AQ279" t="inlineStr"/>
+      <c r="AR279" t="inlineStr"/>
       <c r="AS279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AT279" t="inlineStr">
         <is>
-          <t>Licensing Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AU279" t="inlineStr">
         <is>
-          <t>Licensing Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AV279" t="inlineStr">
         <is>
-          <t>Licensing Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AW279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AX279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AY279" t="inlineStr">
         <is>
-          <t>Migration Team</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AZ279" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="BA279" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="BB279" t="inlineStr">
         <is>
-          <t>Migration Team?</t>
+          <t>FISB</t>
         </is>
       </c>
       <c r="BC279" t="inlineStr">
-        <is>
-          <t>FISB</t>
-        </is>
-      </c>
-      <c r="BD279" t="inlineStr">
         <is>
           <t>PaymentsOne Debit</t>
         </is>

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC279"/>
+  <dimension ref="A1:BF280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1178,12 +1178,27 @@
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Wave001</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>New Platform</t>
+          <t>Wave002</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Wave003</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Wave004</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Wave005</t>
         </is>
       </c>
     </row>
@@ -2739,9 +2754,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AP279" t="inlineStr"/>
-      <c r="AQ279" t="inlineStr"/>
-      <c r="AR279" t="inlineStr"/>
       <c r="AS279" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2795,6 +2807,43 @@
       <c r="BC279" t="inlineStr">
         <is>
           <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="AZ280" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="BA280" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="BB280" t="inlineStr">
+        <is>
+          <t>ValueA</t>
+        </is>
+      </c>
+      <c r="BC280" t="inlineStr">
+        <is>
+          <t>ValueB</t>
+        </is>
+      </c>
+      <c r="BD280" t="inlineStr">
+        <is>
+          <t>ValueC</t>
+        </is>
+      </c>
+      <c r="BE280" t="inlineStr">
+        <is>
+          <t>ValueD</t>
+        </is>
+      </c>
+      <c r="BF280" t="inlineStr">
+        <is>
+          <t>ValueE</t>
         </is>
       </c>
     </row>

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF280"/>
+  <dimension ref="A1:BF281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>Wave004</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
@@ -2847,6 +2847,23 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>Migration Team</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="BE281" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB17"/>
   <conditionalFormatting sqref="P17">

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF281"/>
+  <dimension ref="A1:DU282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1193,12 +1193,347 @@
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Zip Code</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>Wave005</t>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Project Coordinator</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Certification Required Yes Or No</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Certification Coordinator</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>Core Processor</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Core Contact Name</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Core Contact Email</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Third Party Vendor Name</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Third Party Vendor Email</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Third Party Vendor Phone</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>Ig Group Name If Applicable</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>Client Relationship Manager</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Application Access Analyst</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Deconversion Analyst</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>Settlement Analyst</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Instant Issue Yes Or No</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Instant Issue Vendor</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>Wizproc If Applicable</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>Central Card Issue Vendor</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>Routing Institution Id</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>Current Pseudo Routing If Applicable</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>Proc Id Processor Name</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Shared Proc Core</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>Stand In Proc Horizon Only</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Fi Id Only Valid For Norcross</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Bins</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Limit Group</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Entity Name Dn</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>Fxid For Core Vendor If Applicable</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>Cvv Expiration Date Format</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>Acro Ibm Id</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>Cutoff Time</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>Send Advice</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>Vru Activation Options</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>Card Activation Line Domestic</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>Card Activation Line International</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>Lost Stolen After Hours Hotcarding</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>Tsap Ip Address</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>Tsap Port</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>Tsap Device Circuit Id</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>Tsap Pi</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>Tsap Ch</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>Tsap Tandem Port</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>Batch Transfer Zipped Unzipped</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>Batch Transfer Text Html</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>Apb4 Yes Or No</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>Pbf Yes Or No</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>Online Maintenance 382 Messages</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>Lotus Notes Unique Id Batch Maintenance Apb4</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>Lotus Notes Unique Id Balance Refresh File Pbf</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>Posting File Format 28 Or Iso User File</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>Scorecard Loyalty Yes Or No</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>Scorecard Program Id</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>Scorecard Agent Id</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>Scorecard Corp Id</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>Scorecard Association Id</t>
+        </is>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>Securlock Products</t>
+        </is>
+      </c>
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>Fraud Contact Group Email Client</t>
+        </is>
+      </c>
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>3d Secure Yes Or No</t>
+        </is>
+      </c>
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>Arb Yes Or No</t>
+        </is>
+      </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>Fasttrack Yes Or No</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>Mobile Banking Yes Or No</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>Debit Credit Or Both</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>Card Types</t>
+        </is>
+      </c>
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>Card Count Active</t>
+        </is>
+      </c>
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>Creq</t>
         </is>
       </c>
     </row>
@@ -2864,6 +3199,413 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>xxxxyyyyyy</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="AA282" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="AI282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AN282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AO282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AP282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BC282" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="BE282" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="BF282" t="inlineStr">
+        <is>
+          <t>9911991100</t>
+        </is>
+      </c>
+      <c r="BG282" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="BH282" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BI282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BJ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BK282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BL282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BM282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BN282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BO282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BP282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BQ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BR282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BS282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BT282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BU282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BV282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BW282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BX282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BY282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BZ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CA282" t="inlineStr">
+        <is>
+          <t>A7X</t>
+        </is>
+      </c>
+      <c r="CB282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CC282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CD282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CE282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CF282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CG282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CH282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CI282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CJ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CK282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CL282" t="inlineStr">
+        <is>
+          <t>18:00 CT *</t>
+        </is>
+      </c>
+      <c r="CM282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CN282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CO282" t="inlineStr">
+        <is>
+          <t>855.485.7039</t>
+        </is>
+      </c>
+      <c r="CP282" t="inlineStr">
+        <is>
+          <t>501.725.9278 (Collect)</t>
+        </is>
+      </c>
+      <c r="CQ282" t="inlineStr">
+        <is>
+          <t>800.500.1044</t>
+        </is>
+      </c>
+      <c r="CR282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CS282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CT282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CU282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CV282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CW282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CX282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CY282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CZ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DA282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DB282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DC282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DD282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DE282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DF282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DG282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DH282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DI282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DJ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DK282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DL282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DM282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DN282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DO282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DP282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DQ282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DR282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DS282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DT282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DU282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB17"/>
   <conditionalFormatting sqref="P17">

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU282"/>
+  <dimension ref="A1:DW282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -1528,12 +1528,22 @@
       </c>
       <c r="DT2" t="inlineStr">
         <is>
-          <t>Card Count Active</t>
+          <t>FI PRIMARY CONTACT EMAIL</t>
         </is>
       </c>
       <c r="DU2" t="inlineStr">
         <is>
-          <t>Creq</t>
+          <t>ISSUING NETWORKS</t>
+        </is>
+      </c>
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>ACQUIRING NETWORKS</t>
+        </is>
+      </c>
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>Switch</t>
         </is>
       </c>
     </row>
@@ -1561,11 +1571,392 @@
       <c r="U3" s="12" t="n"/>
       <c r="V3" s="12" t="n"/>
       <c r="W3" s="12" t="n"/>
-      <c r="X3" s="12" t="n"/>
+      <c r="X3" s="12" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
       <c r="Y3" s="12" t="n"/>
-      <c r="Z3" s="17" t="n"/>
-      <c r="AA3" s="17" t="n"/>
-      <c r="AB3" s="17" t="n"/>
+      <c r="Z3" s="17" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="AA3" s="17" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="AB3" s="17" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>9911991100</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>A7X</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>18:00 CT *</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>855.485.7039</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>501.725.9278 (Collect)</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>800.500.1044</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
     </row>
     <row r="4" customFormat="1" s="18">
       <c r="B4" s="19" t="n"/>

--- a/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
+++ b/python/Wave-Network & Licensing Request Form Norcross Migrations.xlsx
@@ -718,7 +718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB278"/>
+  <dimension ref="A1:AK278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -917,6 +917,51 @@
           <t>DDA versus GL</t>
         </is>
       </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>ADDRESS</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>ZIP CODE</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>ENTITY NAME (DN)</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>FI PRIMARY CONTACT NAME</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>FI PRIMARY CONTACT EMAIL</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>BINs</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>BIN LENGTH</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>ISSUING NETWORKS</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>ACQUIRING NETWORKS</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="17.25" customFormat="1" customHeight="1" s="11">
       <c r="A2" s="8" t="inlineStr">
@@ -1151,16 +1196,142 @@
       <c r="AB3" s="17" t="n"/>
     </row>
     <row r="4" customFormat="1" s="18">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
       <c r="B4" s="19" t="n"/>
-      <c r="C4" s="19" t="n"/>
+      <c r="C4" s="19" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
       <c r="F4" s="20" t="n"/>
       <c r="G4" s="20" t="n"/>
       <c r="H4" s="21" t="n"/>
-      <c r="P4" s="22" t="n"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P4" s="22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="S4" s="12" t="n"/>
-      <c r="Z4" s="23" t="n"/>
-      <c r="AA4" s="23" t="n"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Z4" s="23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA4" s="23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AB4" s="23" t="n"/>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Karapakkam</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>600117</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>xxxxyyyyyy</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="5" customFormat="1" s="18">
       <c r="A5" s="12" t="n"/>
